--- a/pearson_tables/tp_netherlands_cumul-2-1.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-2-1.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.581046641279746</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6537684893051194</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6563673397316062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8573245961901772</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6086678319804353</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7094813984809566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7845020850030948</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5787017327534307</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5809674498759548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8917295534165747</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5091301391677614</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5401329594074412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.752142976922074</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6884660383909954</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6362802955741373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5830899677825341</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6818091333858466</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6480173514159424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5774990312926948</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6599838530643387</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6822109441602001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7052779869335657</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6545292538493177</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7093423134729366</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
